--- a/biology/Zoologie/Forficula/Forficula.xlsx
+++ b/biology/Zoologie/Forficula/Forficula.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Forficula (les forficules) est un genre d'insectes de la famille des Forficulidae dont l'espèce la plus connue est appelée perce-oreille (Forficula auricularia).
 </t>
@@ -511,9 +523,11 @@
           <t>Espèces présentes en Europe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Fauna Europaea                                      (4 mars 2023)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Fauna Europaea                                      (4 mars 2023) :
 Forficula abrutiana
 Forficula aetolica
 Forficula apennina
@@ -558,9 +572,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon  Species File              (5 octobre 2019)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon  Species File              (5 octobre 2019) :
 Forficula abbottabadiensis Bharadwaj &amp; Kapoor, 1967
 Forficula abrutiana Borelli, 1916
 Forficula aetolica Brunner von Wattenwyl, 1882
@@ -668,10 +684,12 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La femelle de la forficule prodigue des soins maternels aux petits. Ces derniers peuvent s'en passer, mais leur taux de survie diminue alors. Si la mère disparaît, les larves peuvent être accueillies par d'autres cellules familiales, en se déplaçant dans un autre nid, ou en s'intégrant dans le groupe d'une autre mère qui arrive. 
-Des hormones émises par la mère seraient impliquées dans le processus[3].
+Des hormones émises par la mère seraient impliquées dans le processus.
 </t>
         </is>
       </c>
